--- a/Dokumentacio/Gantt-Diagram.xlsx
+++ b/Dokumentacio/Gantt-Diagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KapusKevin\Documents\GitHub\13_S1_8_vizsgaremek\Dokumentacio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FesetoImre\Documents\GitHub\13_S1_8_vizsgaremek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4D27AB-1135-4959-8D09-6C733D3CCCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C240B6-E67A-409F-A5E2-84B61ACAF297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A948BBB3-6A4E-4DF6-B20B-78744BD8F10E}"/>
   </bookViews>
@@ -29,12 +29,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Feladat</t>
   </si>
@@ -49,6 +52,39 @@
   </si>
   <si>
     <t>Dokumentáció és a gantt-diagram elkészítése</t>
+  </si>
+  <si>
+    <t>Adatbázis létrehozása</t>
+  </si>
+  <si>
+    <t>Regisztrációs/Bejelentkezési form létrehozása</t>
+  </si>
+  <si>
+    <t>Bejelentkezési form formázása</t>
+  </si>
+  <si>
+    <t>Feladat rendező felület létrehozása</t>
+  </si>
+  <si>
+    <t>Feladat rendező felület formázása</t>
+  </si>
+  <si>
+    <t>Csoporttal kapcsolatos felületek létrehozása</t>
+  </si>
+  <si>
+    <t>Csoporttal kapcsolatos felületek formázása</t>
+  </si>
+  <si>
+    <t>Naptár funkciók bevezetése</t>
+  </si>
+  <si>
+    <t>Naptárral kapcsolatos felületek formázása</t>
+  </si>
+  <si>
+    <t>Adatbázis végleges funkciói</t>
+  </si>
+  <si>
+    <t>Végleges formázások</t>
   </si>
 </sst>
 </file>
@@ -190,6 +226,36 @@
                 <c:pt idx="0">
                   <c:v>45902</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>45909</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45974</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46058</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -231,6 +297,36 @@
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205A152F-2B44-4C13-950B-5BC60EAA3711}">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,74 +1472,242 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <f>F2+2</f>
+        <v>45909</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F10" si="0">D3+E3</f>
-        <v>0</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D10" si="1">F3+2</f>
+        <v>45918</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45928</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>45930</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>45936</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>45968</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45972</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>45974</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46004</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>46006</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46014</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>46016</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>46046</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ref="D11:D21" si="2">F10+2</f>
+        <v>46048</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" ref="F11:F21" si="3">D11+E11</f>
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>46058</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>46070</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>46072</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>46084</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumentacio/Gantt-Diagram.xlsx
+++ b/Dokumentacio/Gantt-Diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FesetoImre\Documents\GitHub\13_S1_8_vizsgaremek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C240B6-E67A-409F-A5E2-84B61ACAF297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BD3A55-F503-4687-9A29-8787395E6F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A948BBB3-6A4E-4DF6-B20B-78744BD8F10E}"/>
   </bookViews>
@@ -233,28 +233,28 @@
                   <c:v>45918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45930</c:v>
+                  <c:v>45932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45936</c:v>
+                  <c:v>45940</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45968</c:v>
+                  <c:v>45973</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45974</c:v>
+                  <c:v>45981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46006</c:v>
+                  <c:v>46014</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46016</c:v>
+                  <c:v>46027</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46048</c:v>
+                  <c:v>46060</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46058</c:v>
+                  <c:v>46073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -302,31 +302,31 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1425,7 +1425,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,11 +1499,11 @@
         <v>45918</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>45928</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1515,14 +1515,14 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>45934</v>
+        <v>45938</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -1534,14 +1534,14 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>45936</v>
+        <v>45940</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>45966</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1553,14 +1553,14 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>45968</v>
+        <v>45973</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>45972</v>
+        <v>45979</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1572,14 +1572,14 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>46004</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1591,14 +1591,14 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>46006</v>
+        <v>46014</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>46014</v>
+        <v>46025</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1610,14 +1610,14 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>46016</v>
+        <v>46027</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>46046</v>
+        <v>46058</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1628,15 +1628,15 @@
         <v>13</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:D21" si="2">F10+2</f>
-        <v>46048</v>
+        <f t="shared" ref="D11:D13" si="2">F10+2</f>
+        <v>46060</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ref="F11:F21" si="3">D11+E11</f>
-        <v>46056</v>
+        <f t="shared" ref="F11:F13" si="3">D11+E11</f>
+        <v>46071</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1648,14 +1648,14 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>46058</v>
+        <v>46073</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>46070</v>
+        <v>46087</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1667,14 +1667,14 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>46072</v>
+        <v>46089</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>46084</v>
+        <v>46103</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">

--- a/Dokumentacio/Gantt-Diagram.xlsx
+++ b/Dokumentacio/Gantt-Diagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FesetoImre\Documents\GitHub\13_S1_8_vizsgaremek\Dokumentacio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KapusKevin\Documents\GitHub\13_S1_8_vizsgaremek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BD3A55-F503-4687-9A29-8787395E6F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A417E9-528C-4F01-9836-2E90CC561BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A948BBB3-6A4E-4DF6-B20B-78744BD8F10E}"/>
   </bookViews>
@@ -159,6 +159,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>Gantt Diagram</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> - Calentasker</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -227,34 +257,34 @@
                   <c:v>45902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45909</c:v>
+                  <c:v>45935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45918</c:v>
+                  <c:v>45944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45932</c:v>
+                  <c:v>45958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45940</c:v>
+                  <c:v>45966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45973</c:v>
+                  <c:v>45999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45981</c:v>
+                  <c:v>46007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46014</c:v>
+                  <c:v>46040</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46027</c:v>
+                  <c:v>46053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46060</c:v>
+                  <c:v>46086</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46073</c:v>
+                  <c:v>46099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,7 +326,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
@@ -345,7 +375,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="10"/>
         <c:overlap val="100"/>
         <c:axId val="570462480"/>
         <c:axId val="570459984"/>
@@ -398,12 +428,15 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="570459984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="46122"/>
+          <c:min val="45902"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -453,7 +486,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="570462480"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1089,13 +1122,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609598</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1424,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205A152F-2B44-4C13-950B-5BC60EAA3711}">
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,11 +1494,11 @@
         <v>45902</v>
       </c>
       <c r="E2" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1">
         <f>D2+E2</f>
-        <v>45907</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1477,14 +1510,14 @@
       </c>
       <c r="D3" s="1">
         <f>F2+2</f>
-        <v>45909</v>
+        <v>45935</v>
       </c>
       <c r="E3">
         <v>7</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F10" si="0">D3+E3</f>
-        <v>45916</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -1495,15 +1528,15 @@
         <v>6</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D10" si="1">F3+2</f>
-        <v>45918</v>
+        <f>F3+2</f>
+        <v>45944</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>45930</v>
+        <f>D4+E4</f>
+        <v>45956</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1514,15 +1547,15 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>45932</v>
+        <f t="shared" ref="D4:D10" si="1">F4+2</f>
+        <v>45958</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>45938</v>
+        <v>45964</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -1534,14 +1567,14 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>45940</v>
+        <v>45966</v>
       </c>
       <c r="E6">
         <v>31</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>45971</v>
+        <v>45997</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1553,14 +1586,14 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>45973</v>
+        <v>45999</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>45979</v>
+        <v>46005</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1572,14 +1605,14 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>45981</v>
+        <v>46007</v>
       </c>
       <c r="E8">
         <v>31</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>46012</v>
+        <v>46038</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
@@ -1591,14 +1624,14 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>46014</v>
+        <v>46040</v>
       </c>
       <c r="E9">
         <v>11</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>46025</v>
+        <v>46051</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -1610,14 +1643,14 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>46027</v>
+        <v>46053</v>
       </c>
       <c r="E10">
         <v>31</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>46058</v>
+        <v>46084</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -1629,14 +1662,14 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" ref="D11:D13" si="2">F10+2</f>
-        <v>46060</v>
+        <v>46086</v>
       </c>
       <c r="E11">
         <v>11</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ref="F11:F13" si="3">D11+E11</f>
-        <v>46071</v>
+        <v>46097</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -1648,14 +1681,14 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>46073</v>
+        <v>46099</v>
       </c>
       <c r="E12">
         <v>14</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>46087</v>
+        <v>46113</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1667,14 +1700,14 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>46089</v>
+        <v>46115</v>
       </c>
       <c r="E13">
         <v>14</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>46103</v>
+        <v>46129</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">

--- a/Dokumentacio/Gantt-Diagram.xlsx
+++ b/Dokumentacio/Gantt-Diagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KapusKevin\Documents\GitHub\13_S1_8_vizsgaremek\Dokumentacio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FesetoImre\Documents\GitHub\13_S1_8_vizsgaremek\Dokumentacio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A417E9-528C-4F01-9836-2E90CC561BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B8B800-D438-430F-AB73-00C0E0A3E0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A948BBB3-6A4E-4DF6-B20B-78744BD8F10E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Feladat</t>
   </si>
@@ -54,37 +54,16 @@
     <t>Dokumentáció és a gantt-diagram elkészítése</t>
   </si>
   <si>
-    <t>Adatbázis létrehozása</t>
+    <t>Adatbázis tervezése, leírása</t>
   </si>
   <si>
-    <t>Regisztrációs/Bejelentkezési form létrehozása</t>
+    <t>Kinézet tervezése, programozása</t>
   </si>
   <si>
-    <t>Bejelentkezési form formázása</t>
+    <t>Adatbázisba tárolt adatok megoldása</t>
   </si>
   <si>
-    <t>Feladat rendező felület létrehozása</t>
-  </si>
-  <si>
-    <t>Feladat rendező felület formázása</t>
-  </si>
-  <si>
-    <t>Csoporttal kapcsolatos felületek létrehozása</t>
-  </si>
-  <si>
-    <t>Csoporttal kapcsolatos felületek formázása</t>
-  </si>
-  <si>
-    <t>Naptár funkciók bevezetése</t>
-  </si>
-  <si>
-    <t>Naptárral kapcsolatos felületek formázása</t>
-  </si>
-  <si>
-    <t>Adatbázis végleges funkciói</t>
-  </si>
-  <si>
-    <t>Végleges formázások</t>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -257,34 +236,13 @@
                   <c:v>45902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45935</c:v>
+                  <c:v>45937</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45944</c:v>
+                  <c:v>45937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45958</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45966</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46007</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46040</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46053</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46086</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46099</c:v>
+                  <c:v>45972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -329,34 +287,13 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,7 +1395,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,15 +1446,15 @@
         <v>5</v>
       </c>
       <c r="D3" s="1">
-        <f>F2+2</f>
-        <v>45935</v>
+        <f>F2+4</f>
+        <v>45937</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F10" si="0">D3+E3</f>
-        <v>45942</v>
+        <f>D3+E3</f>
+        <v>45968</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -1528,15 +1465,14 @@
         <v>6</v>
       </c>
       <c r="D4" s="1">
-        <f>F3+2</f>
-        <v>45944</v>
+        <v>45937</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1">
         <f>D4+E4</f>
-        <v>45956</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1547,168 +1483,48 @@
         <v>7</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D4:D10" si="1">F4+2</f>
-        <v>45958</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>45964</v>
+        <f>F4+4</f>
+        <v>45972</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="e">
+        <f>D5+E5</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>45966</v>
-      </c>
-      <c r="E6">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>45997</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>45999</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>46005</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>46007</v>
-      </c>
-      <c r="E8">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>46038</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>46040</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>46051</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>46053</v>
-      </c>
-      <c r="E10">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>46084</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" ref="D11:D13" si="2">F10+2</f>
-        <v>46086</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11:F13" si="3">D11+E11</f>
-        <v>46097</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="2"/>
-        <v>46099</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="3"/>
-        <v>46113</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>46115</v>
-      </c>
-      <c r="E13">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="3"/>
-        <v>46129</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
